--- a/py_tian05_tennis/Tennis.xlsx
+++ b/py_tian05_tennis/Tennis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT117"/>
+  <dimension ref="A1:AT116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,7 +638,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -850,7 +850,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1274,7 +1274,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1698,7 +1698,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1910,7 +1910,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -2122,7 +2122,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -2334,7 +2334,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -2546,7 +2546,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2758,7 +2758,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2970,7 +2970,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -3182,7 +3182,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -3394,7 +3394,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
@@ -3606,12 +3606,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3636,17 +3636,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -3701,22 +3701,22 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -3736,22 +3736,22 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -3771,32 +3771,32 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -3806,19 +3806,19 @@
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3833,12 +3833,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -3883,12 +3883,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3908,12 +3908,12 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3923,12 +3923,12 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -3948,22 +3948,22 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -3973,12 +3973,12 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
@@ -3988,32 +3988,32 @@
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -4030,7 +4030,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4065,12 +4065,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -4095,12 +4095,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -4130,12 +4130,12 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -4160,22 +4160,22 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4195,17 +4195,17 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -4454,7 +4454,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -4666,7 +4666,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4696,17 +4696,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4726,17 +4726,17 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -4806,17 +4806,17 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -4831,22 +4831,22 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -4866,19 +4866,19 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4906,14 +4906,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4941,14 +4936,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4968,22 +4958,17 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4998,7 +4983,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -5011,19 +4996,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>問</t>
-        </is>
-      </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5033,7 +5013,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -5046,14 +5026,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>問</t>
-        </is>
-      </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -5068,20 +5043,15 @@
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT23" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -5090,12 +5060,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5118,19 +5088,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -5150,22 +5115,17 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
           <t>X</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -5185,22 +5145,17 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -5223,19 +5178,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -5255,22 +5205,17 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -5280,7 +5225,7 @@
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
@@ -5290,19 +5235,14 @@
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="AT24" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5322,7 +5262,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -5330,19 +5270,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -5357,7 +5292,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5365,14 +5300,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -5400,19 +5330,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -5422,7 +5347,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -5435,14 +5360,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -5457,7 +5377,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -5470,14 +5390,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -5492,7 +5407,7 @@
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
@@ -5503,18 +5418,13 @@
       <c r="AS25" t="inlineStr">
         <is>
           <t>X</t>
-        </is>
-      </c>
-      <c r="AT25" t="inlineStr">
-        <is>
-          <t>O</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5542,14 +5452,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -5559,12 +5464,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -5577,14 +5482,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -5599,12 +5499,12 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -5612,19 +5512,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -5634,32 +5529,27 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -5682,19 +5572,14 @@
           <t>O</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -5715,18 +5600,13 @@
       <c r="AS26" t="inlineStr">
         <is>
           <t>O</t>
-        </is>
-      </c>
-      <c r="AT26" t="inlineStr">
-        <is>
-          <t>X</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5741,7 +5621,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5754,14 +5634,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -5786,17 +5661,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -5824,14 +5694,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -5851,7 +5716,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -5859,14 +5724,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -5886,7 +5746,7 @@
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
@@ -5894,19 +5754,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -5921,15 +5776,10 @@
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -5938,7 +5788,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5966,14 +5816,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6001,14 +5846,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -6036,14 +5876,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -6063,7 +5898,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -6071,34 +5906,29 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
@@ -6106,42 +5936,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT28" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -6150,7 +5970,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -6178,14 +5998,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -6213,14 +6028,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -6235,27 +6045,22 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -6283,14 +6088,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
@@ -6305,7 +6105,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
@@ -6318,14 +6118,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -6335,7 +6130,7 @@
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -6349,11 +6144,6 @@
         </is>
       </c>
       <c r="AS29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT29" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -6362,7 +6152,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6377,12 +6167,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -6390,14 +6180,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -6425,14 +6210,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -6447,27 +6227,22 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -6492,22 +6267,17 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -6517,32 +6287,27 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -6552,20 +6317,15 @@
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AT30" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -6574,12 +6334,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6602,19 +6362,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -6637,14 +6392,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -6664,27 +6414,22 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -6707,19 +6452,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -6729,7 +6469,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
@@ -6742,19 +6482,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -6764,7 +6499,7 @@
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
@@ -6775,18 +6510,13 @@
       <c r="AS31" t="inlineStr">
         <is>
           <t>X</t>
-        </is>
-      </c>
-      <c r="AT31" t="inlineStr">
-        <is>
-          <t>O</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6814,14 +6544,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6849,14 +6574,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -6884,19 +6604,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -6906,7 +6621,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -6919,14 +6634,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -6941,7 +6651,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -6951,17 +6661,12 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
           <t>X</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -6971,12 +6676,12 @@
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
@@ -6985,11 +6690,6 @@
         </is>
       </c>
       <c r="AS32" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AT32" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -6998,7 +6698,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -7026,14 +6726,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -7053,7 +6748,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -7061,19 +6756,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -7083,7 +6773,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -7096,14 +6786,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -7131,29 +6816,24 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -7166,14 +6846,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -7199,18 +6874,13 @@
       <c r="AS33" t="inlineStr">
         <is>
           <t>X</t>
-        </is>
-      </c>
-      <c r="AT33" t="inlineStr">
-        <is>
-          <t>O</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -7238,14 +6908,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -7273,14 +6938,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -7295,7 +6955,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -7308,14 +6968,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -7340,17 +6995,12 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -7360,7 +7010,7 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
@@ -7370,7 +7020,7 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
@@ -7378,19 +7028,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -7405,15 +7050,10 @@
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT34" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -7422,7 +7062,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -7450,14 +7090,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -7485,14 +7120,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -7520,14 +7150,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -7555,14 +7180,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -7572,17 +7192,17 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
@@ -7590,14 +7210,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AL35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -7607,7 +7222,7 @@
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
@@ -7617,15 +7232,10 @@
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT35" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -7634,7 +7244,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -7662,14 +7272,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -7679,7 +7284,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -7697,14 +7302,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -7732,14 +7332,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -7767,14 +7362,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -7784,32 +7374,27 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -7819,237 +7404,20 @@
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT36" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AR37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AS37" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AT37" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -8237,7 +7605,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8272,7 +7640,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -8307,7 +7675,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -8342,7 +7710,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -8377,7 +7745,7 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
@@ -8414,7 +7782,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8449,7 +7817,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -8484,7 +7852,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -8519,7 +7887,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -8554,7 +7922,7 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
@@ -8591,7 +7959,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8626,7 +7994,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -8661,7 +8029,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -8696,7 +8064,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -8731,7 +8099,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
@@ -8768,7 +8136,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8803,7 +8171,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -8838,7 +8206,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -8873,7 +8241,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -8908,7 +8276,7 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
@@ -8945,7 +8313,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8980,7 +8348,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -9015,7 +8383,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -9050,7 +8418,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -9085,7 +8453,7 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
@@ -9122,7 +8490,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9157,7 +8525,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -9192,7 +8560,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -9227,7 +8595,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -9262,7 +8630,7 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
@@ -9299,7 +8667,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9334,7 +8702,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -9369,7 +8737,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -9404,7 +8772,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -9439,7 +8807,7 @@
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
@@ -9476,7 +8844,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9511,7 +8879,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -9546,7 +8914,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -9581,7 +8949,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -9616,7 +8984,7 @@
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
@@ -9653,7 +9021,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -9688,7 +9056,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -9723,7 +9091,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -9758,7 +9126,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -9793,7 +9161,7 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
@@ -9830,7 +9198,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -9865,7 +9233,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -9900,7 +9268,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -9935,7 +9303,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -9970,7 +9338,7 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
@@ -10007,7 +9375,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10042,7 +9410,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -10077,7 +9445,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -10112,7 +9480,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -10147,7 +9515,7 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
@@ -10184,7 +9552,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10219,7 +9587,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -10254,7 +9622,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -10289,7 +9657,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -10324,7 +9692,7 @@
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
@@ -10361,7 +9729,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10396,7 +9764,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -10431,7 +9799,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -10466,7 +9834,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -10501,7 +9869,7 @@
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
@@ -10538,7 +9906,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10573,7 +9941,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -10608,7 +9976,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -10643,7 +10011,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -10678,7 +10046,7 @@
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
@@ -10715,7 +10083,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -10730,17 +10098,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10750,12 +10118,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -10770,12 +10138,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -10785,12 +10153,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -10805,12 +10173,12 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -10820,12 +10188,12 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -10835,32 +10203,32 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF57" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH57" t="inlineStr">
@@ -10875,24 +10243,24 @@
       </c>
       <c r="AJ57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL57" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -10912,7 +10280,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -10927,12 +10295,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -10962,7 +10330,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -10982,12 +10350,12 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -10997,7 +10365,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -11017,12 +10385,12 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AD58" t="inlineStr">
@@ -11032,12 +10400,12 @@
       </c>
       <c r="AF58" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH58" t="inlineStr">
@@ -11052,24 +10420,24 @@
       </c>
       <c r="AJ58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL58" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -11094,7 +10462,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -11104,7 +10472,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -11139,7 +10507,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -11174,7 +10542,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -11209,7 +10577,7 @@
       </c>
       <c r="AF59" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
@@ -11229,24 +10597,24 @@
       </c>
       <c r="AJ59" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK59" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL59" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -11281,7 +10649,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -11316,7 +10684,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -11351,7 +10719,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -11386,7 +10754,7 @@
       </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
@@ -11423,7 +10791,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -11458,7 +10826,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -11493,7 +10861,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -11528,7 +10896,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -11563,7 +10931,7 @@
       </c>
       <c r="AF61" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
@@ -11600,12 +10968,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11630,17 +10998,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -11650,7 +11018,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -11665,22 +11033,22 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -11705,27 +11073,27 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
@@ -11740,17 +11108,17 @@
       </c>
       <c r="AF62" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr">
@@ -11760,12 +11128,12 @@
       </c>
       <c r="AJ62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AL62" t="inlineStr">
@@ -11777,12 +11145,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11802,22 +11170,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -11832,7 +11195,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -11840,24 +11203,19 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>問</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -11872,27 +11230,22 @@
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -11907,27 +11260,22 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF63" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="AG63" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI63" t="inlineStr">
@@ -11942,24 +11290,19 @@
       </c>
       <c r="AK63" t="inlineStr">
         <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="AL63" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -11969,12 +11312,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -11982,14 +11325,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -12004,12 +11342,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -12017,34 +11355,29 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
@@ -12052,34 +11385,29 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC64" t="inlineStr">
@@ -12087,24 +11415,19 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD64" t="inlineStr">
-        <is>
-          <t>問</t>
-        </is>
-      </c>
       <c r="AF64" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI64" t="inlineStr">
@@ -12114,29 +11437,24 @@
       </c>
       <c r="AJ64" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK64" t="inlineStr">
         <is>
-          <t>問</t>
-        </is>
-      </c>
-      <c r="AL64" t="inlineStr">
-        <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -12151,7 +11469,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -12159,14 +11477,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -12186,7 +11499,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -12194,19 +11507,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -12221,42 +11529,37 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
           <t>X</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AC65" t="inlineStr">
@@ -12264,14 +11567,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="AD65" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AF65" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="AG65" t="inlineStr">
@@ -12295,11 +11593,6 @@
         </is>
       </c>
       <c r="AK65" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL65" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -12308,12 +11601,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -12328,32 +11621,27 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -12363,7 +11651,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -12371,19 +11659,14 @@
           <t>O</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -12393,12 +11676,12 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
@@ -12406,14 +11689,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -12428,27 +11706,22 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AD66" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF66" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="AG66" t="inlineStr">
@@ -12468,15 +11741,10 @@
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK66" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL66" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -12485,7 +11753,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -12513,14 +11781,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -12535,7 +11798,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -12548,14 +11811,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -12570,7 +11828,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -12583,14 +11841,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -12605,7 +11858,7 @@
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
@@ -12615,17 +11868,12 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD67" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AF67" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
@@ -12635,34 +11883,29 @@
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK67" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL67" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -12682,22 +11925,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -12722,27 +11960,22 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -12760,19 +11993,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -12795,42 +12023,32 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AF68" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ68" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL68" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -12839,17 +12057,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -12867,19 +12085,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -12902,19 +12115,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -12924,27 +12132,22 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
           <t>X</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -12972,14 +12175,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="AD69" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AF69" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="AG69" t="inlineStr">
@@ -12994,7 +12192,7 @@
       </c>
       <c r="AI69" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ69" t="inlineStr">
@@ -13004,24 +12202,19 @@
       </c>
       <c r="AK69" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL69" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -13041,22 +12234,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -13079,24 +12267,19 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -13111,27 +12294,22 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -13146,27 +12324,22 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AD70" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AF70" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI70" t="inlineStr">
@@ -13176,29 +12349,24 @@
       </c>
       <c r="AJ70" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK70" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL70" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -13213,7 +12381,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -13221,14 +12389,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -13238,17 +12401,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -13256,34 +12419,29 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
@@ -13291,34 +12449,29 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
@@ -13326,24 +12479,19 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AF71" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="AG71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI71" t="inlineStr">
@@ -13353,29 +12501,24 @@
       </c>
       <c r="AJ71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AK71" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL71" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -13390,27 +12533,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
           <t>O</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -13425,27 +12563,22 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -13455,12 +12588,12 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -13468,59 +12601,49 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AD72" t="inlineStr">
-        <is>
           <t>X</t>
         </is>
       </c>
       <c r="AF72" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH72" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI72" t="inlineStr">
@@ -13535,19 +12658,14 @@
       </c>
       <c r="AK72" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL72" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -13557,7 +12675,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -13567,32 +12685,27 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -13602,72 +12715,62 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
@@ -13680,24 +12783,19 @@
           <t>O</t>
         </is>
       </c>
-      <c r="AD73" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="AF73" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="AG73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AH73" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="AI73" t="inlineStr">
@@ -13711,11 +12809,6 @@
         </is>
       </c>
       <c r="AK73" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL73" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -13724,7 +12817,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -13752,14 +12845,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -13774,7 +12862,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -13787,14 +12875,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -13804,12 +12887,12 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
@@ -13822,14 +12905,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -13839,12 +12917,12 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -13854,17 +12932,12 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD74" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AF74" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="AG74" t="inlineStr">
@@ -13874,34 +12947,29 @@
       </c>
       <c r="AH74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ74" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK74" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL74" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -13921,22 +12989,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -13946,7 +13009,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -13961,17 +13024,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -13999,14 +13057,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -14021,7 +13074,7 @@
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr">
@@ -14034,14 +13087,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="AD75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="AF75" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="AG75" t="inlineStr">
@@ -14065,11 +13113,6 @@
         </is>
       </c>
       <c r="AK75" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL75" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -14078,7 +13121,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -14106,14 +13149,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -14123,7 +13161,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -14141,14 +13179,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -14158,12 +13191,12 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -14176,14 +13209,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -14193,237 +13221,50 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD76" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AF76" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="AG76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AH76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AI76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="AK76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AL76" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AA77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AD77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AF77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="AG77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AH77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AI77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AJ77" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="AK77" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="AL77" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -14557,7 +13398,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -14597,7 +13438,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -14637,7 +13478,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/18(水)  </t>
+          <t xml:space="preserve">9/11(土)  </t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -14679,7 +13520,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -14719,7 +13560,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -14759,7 +13600,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/19(木)  </t>
+          <t xml:space="preserve">9/12(日)  </t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -14801,7 +13642,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -14841,7 +13682,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -14881,7 +13722,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/20(金)  </t>
+          <t xml:space="preserve">9/13(月)  </t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -14923,7 +13764,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -14963,7 +13804,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -15003,7 +13844,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/21(土)  </t>
+          <t xml:space="preserve">9/14(火)  </t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -15045,7 +13886,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -15085,7 +13926,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -15125,7 +13966,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/22(日)  </t>
+          <t xml:space="preserve">9/15(水)  </t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -15167,7 +14008,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -15207,7 +14048,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -15247,7 +14088,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/23(月)  </t>
+          <t xml:space="preserve">9/16(木)  </t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -15289,7 +14130,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -15329,7 +14170,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -15369,7 +14210,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/24(火)  </t>
+          <t xml:space="preserve">9/17(金)  </t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -15411,7 +14252,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -15451,7 +14292,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -15491,7 +14332,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/25(水)  </t>
+          <t xml:space="preserve">9/18(土)  </t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -15533,7 +14374,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -15573,7 +14414,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -15613,7 +14454,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/26(木)  </t>
+          <t xml:space="preserve">9/19(日)  </t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -15655,7 +14496,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -15695,7 +14536,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -15735,7 +14576,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/27(金)  </t>
+          <t xml:space="preserve">9/20(月)  </t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -15777,7 +14618,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -15817,7 +14658,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -15857,7 +14698,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/28(土)  </t>
+          <t xml:space="preserve">9/21(火)  </t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -15899,7 +14740,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -15939,7 +14780,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -15979,7 +14820,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/29(日)  </t>
+          <t xml:space="preserve">9/22(水)  </t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -16021,7 +14862,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -16061,7 +14902,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -16101,7 +14942,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/30(月)  </t>
+          <t xml:space="preserve">9/23(木)  </t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -16143,7 +14984,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -16183,7 +15024,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -16223,7 +15064,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t xml:space="preserve">8/31(火)  </t>
+          <t xml:space="preserve">9/24(金)  </t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -16265,7 +15106,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -16285,12 +15126,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -16305,7 +15146,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -16315,7 +15156,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -16345,17 +15186,17 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/1(水)  </t>
+          <t xml:space="preserve">9/25(土)  </t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
@@ -16370,7 +15211,7 @@
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X97" t="inlineStr">
@@ -16387,7 +15228,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -16412,7 +15253,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -16427,12 +15268,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -16447,7 +15288,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -16467,12 +15308,12 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/2(木)  </t>
+          <t xml:space="preserve">9/26(日)  </t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
@@ -16487,7 +15328,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
@@ -16509,7 +15350,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -16519,7 +15360,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -16549,7 +15390,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -16559,17 +15400,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -16589,7 +15430,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/3(金)  </t>
+          <t xml:space="preserve">9/27(月)  </t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -16599,12 +15440,12 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -16631,7 +15472,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -16671,7 +15512,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -16711,7 +15552,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/4(土)  </t>
+          <t xml:space="preserve">9/28(火)  </t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -16753,7 +15594,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -16793,7 +15634,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -16833,7 +15674,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/5(日)  </t>
+          <t xml:space="preserve">9/29(水)  </t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -16875,7 +15716,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -16915,7 +15756,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -16925,7 +15766,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -16935,27 +15776,27 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/6(月)  </t>
+          <t xml:space="preserve">9/30(木)  </t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -16965,12 +15806,12 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -16980,7 +15821,7 @@
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X102" t="inlineStr">
@@ -16990,14 +15831,14 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -17007,7 +15848,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -17022,7 +15863,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -17030,29 +15871,24 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -17070,19 +15906,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/7(火)  </t>
+          <t xml:space="preserve">10/2(土)  </t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
@@ -17092,7 +15923,7 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -17102,24 +15933,19 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X103" t="inlineStr">
         <is>
           <t>X</t>
-        </is>
-      </c>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>問</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -17139,7 +15965,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -17152,24 +15978,19 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -17192,14 +16013,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>問</t>
-        </is>
-      </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/8(水)  </t>
+          <t xml:space="preserve">10/3(日)  </t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -17209,7 +16025,7 @@
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U104" t="inlineStr">
@@ -17230,18 +16046,13 @@
       <c r="X104" t="inlineStr">
         <is>
           <t>X</t>
-        </is>
-      </c>
-      <c r="Y104" t="inlineStr">
-        <is>
-          <t>問</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -17271,22 +16082,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
           <t>X</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -17314,19 +16120,14 @@
           <t>O</t>
         </is>
       </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/9(木)  </t>
+          <t xml:space="preserve">10/4(月)  </t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
@@ -17341,29 +16142,24 @@
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y105" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -17383,7 +16179,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -17396,14 +16192,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -17418,17 +16209,17 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -17436,14 +16227,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/10(金)  </t>
+          <t xml:space="preserve">10/5(火)  </t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -17453,7 +16239,7 @@
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U106" t="inlineStr">
@@ -17472,11 +16258,6 @@
         </is>
       </c>
       <c r="X106" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y106" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -17485,7 +16266,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -17505,7 +16286,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -17518,14 +16299,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -17558,14 +16334,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/11(土)  </t>
+          <t xml:space="preserve">10/6(水)  </t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -17575,17 +16346,17 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
@@ -17594,11 +16365,6 @@
         </is>
       </c>
       <c r="X107" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y107" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -17607,7 +16373,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -17632,7 +16398,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -17640,14 +16406,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -17672,7 +16433,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -17680,14 +16441,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/12(日)  </t>
+          <t xml:space="preserve">10/7(木)  </t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -17707,7 +16463,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="W108" t="inlineStr">
@@ -17716,11 +16472,6 @@
         </is>
       </c>
       <c r="X108" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y108" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -17729,7 +16480,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -17762,24 +16513,19 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -17789,12 +16535,12 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -17802,29 +16548,24 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/13(月)  </t>
+          <t xml:space="preserve">10/8(金)  </t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -17834,15 +16575,10 @@
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X109" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y109" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -17851,7 +16587,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -17861,7 +16597,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -17884,24 +16620,19 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -17924,19 +16655,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14(火)  </t>
+          <t xml:space="preserve">10/9(土)  </t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
@@ -17946,25 +16672,20 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="X110" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y110" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -17973,7 +16694,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -17993,12 +16714,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -18006,14 +16727,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -18023,7 +16739,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -18046,14 +16762,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/15(水)  </t>
+          <t xml:space="preserve">10/10(日)  </t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
@@ -18063,7 +16774,7 @@
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U111" t="inlineStr">
@@ -18084,18 +16795,13 @@
       <c r="X111" t="inlineStr">
         <is>
           <t>X</t>
-        </is>
-      </c>
-      <c r="Y111" t="inlineStr">
-        <is>
-          <t>O</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -18115,32 +16821,27 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -18150,12 +16851,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -18168,19 +16869,14 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/16(木)  </t>
+          <t xml:space="preserve">10/11(月)  </t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
@@ -18204,11 +16900,6 @@
         </is>
       </c>
       <c r="X112" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="Y112" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -18217,7 +16908,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -18250,34 +16941,29 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>問</t>
+          <t>X</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -18290,14 +16976,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/17(金)  </t>
+          <t xml:space="preserve">10/12(火)  </t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -18307,17 +16988,17 @@
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>X</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
@@ -18326,11 +17007,6 @@
         </is>
       </c>
       <c r="X113" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y113" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -18339,7 +17015,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -18349,7 +17025,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -18372,14 +17048,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -18412,14 +17083,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/18(土)  </t>
+          <t xml:space="preserve">10/13(水)  </t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
@@ -18429,7 +17095,7 @@
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
@@ -18448,11 +17114,6 @@
         </is>
       </c>
       <c r="X114" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y114" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -18461,7 +17122,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -18481,12 +17142,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -18494,14 +17155,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -18516,7 +17172,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -18526,7 +17182,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -18534,14 +17190,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/19(日)  </t>
+          <t xml:space="preserve">10/14(木)  </t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
@@ -18566,15 +17217,10 @@
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="X115" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y115" t="inlineStr">
         <is>
           <t>X</t>
         </is>
@@ -18583,7 +17229,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -18616,14 +17262,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -18638,7 +17279,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -18656,14 +17297,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/20(月)  </t>
+          <t xml:space="preserve">10/15(金)  </t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -18673,7 +17309,7 @@
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>O</t>
         </is>
       </c>
       <c r="U116" t="inlineStr">
@@ -18692,133 +17328,6 @@
         </is>
       </c>
       <c r="X116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y116" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9/21(火)  </t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="Y117" t="inlineStr">
         <is>
           <t>X</t>
         </is>
